--- a/C&SD_raw_data/rawdata_format.xlsx
+++ b/C&SD_raw_data/rawdata_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\C&amp;SD_raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tradestat_formal\C&amp;SD_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B1EC6-C16F-4B26-9EF7-5BBE1F0F600F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EA12F4-D231-48E4-A5B4-7D04ACFD79C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="20964" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="690" windowWidth="21585" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSCCIT" sheetId="1" r:id="rId1"/>
@@ -147,11 +147,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,13 +168,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -260,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -274,8 +287,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,21 +299,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,19 +603,19 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="19.5546875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="19.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -598,22 +623,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,84 +651,84 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <f>E6+D6</f>
         <v>1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <f>F6+D7</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <f>E7+D7</f>
         <v>9</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <f>F7+D8</f>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -716,16 +741,16 @@
       <c r="D9" s="4">
         <v>18</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E21" si="0">E8+D8</f>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E20" si="0">E8+D8</f>
         <v>12</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" ref="F9:F21" si="1">F8+D9</f>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:F20" si="1">F8+D9</f>
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -738,60 +763,60 @@
       <c r="D10" s="4">
         <v>18</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -804,16 +829,16 @@
       <c r="D13" s="4">
         <v>18</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -826,60 +851,60 @@
       <c r="D14" s="4">
         <v>18</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -892,16 +917,16 @@
       <c r="D17" s="4">
         <v>18</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -914,60 +939,60 @@
       <c r="D18" s="4">
         <v>18</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="15">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -975,14 +1000,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
@@ -990,6 +1015,7 @@
   <mergeCells count="1">
     <mergeCell ref="E3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1000,19 +1026,19 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,10 +1046,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1031,14 +1057,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1051,84 +1077,84 @@
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <f>E7+D7</f>
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <f>F7+D8</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E14" si="0">E8+D8</f>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:E13" si="0">E8+D8</f>
         <v>9</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" ref="F9:F14" si="1">F8+D9</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:F13" si="1">F8+D9</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1141,16 +1167,16 @@
       <c r="D10" s="4">
         <v>18</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -1163,60 +1189,60 @@
       <c r="D11" s="4">
         <v>18</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1228,6 +1254,7 @@
   <mergeCells count="1">
     <mergeCell ref="E4:F4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1238,19 +1265,19 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,10 +1285,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1269,14 +1296,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1289,194 +1316,194 @@
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <f>E7+D7</f>
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <f>F7+D8</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E15" si="0">E8+D8</f>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:E14" si="0">E8+D8</f>
         <v>9</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" ref="F9:F15" si="1">F8+D9</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:F14" si="1">F8+D9</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1488,6 +1515,7 @@
   <mergeCells count="1">
     <mergeCell ref="E4:F4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>